--- a/Gastos Enero.xlsx
+++ b/Gastos Enero.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NB 3300\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401E734F-1294-42E1-9F5C-E9A97F6F2DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF3452D-9A91-4211-BAAB-AAB79AC41B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{56C00350-53C0-4C3D-8A7F-A659125EDE4C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="56">
   <si>
     <t>Alquiler</t>
   </si>
@@ -200,6 +200,9 @@
   </si>
   <si>
     <t>Dominos</t>
+  </si>
+  <si>
+    <t>Modificado por Yascnay</t>
   </si>
 </sst>
 </file>
@@ -934,7 +937,7 @@
   <dimension ref="B3:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1196,7 +1199,7 @@
         <v>337.8</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>6</v>
       </c>
@@ -1221,7 +1224,7 @@
       </c>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="H18" t="s">
         <v>51</v>
       </c>
@@ -1239,7 +1242,7 @@
       </c>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="H19" t="s">
         <v>9</v>
       </c>
@@ -1257,7 +1260,7 @@
       </c>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="H20" t="s">
         <v>10</v>
       </c>
@@ -1274,6 +1277,9 @@
         <v>-81.330000000000055</v>
       </c>
       <c r="L20" s="3"/>
+      <c r="M20" t="s">
+        <v>55</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
